--- a/public/Laporan_Pemasukan_Truck_Crane.xlsx
+++ b/public/Laporan_Pemasukan_Truck_Crane.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>Laporan Pemasukan Truck Crane</t>
   </si>
@@ -56,112 +56,34 @@
     <t>0001</t>
   </si>
   <si>
-    <t>2024-08-07</t>
-  </si>
-  <si>
-    <t>BP 9088 EY</t>
+    <t>2024-08-04</t>
+  </si>
+  <si>
+    <t>BP 9520 ZG</t>
   </si>
   <si>
     <t>Adi</t>
   </si>
   <si>
-    <t>Budu</t>
-  </si>
-  <si>
-    <t>Angkat Genset</t>
-  </si>
-  <si>
-    <t>PH Ke Batam Center</t>
-  </si>
-  <si>
-    <t>01:00:00</t>
+    <t>abu</t>
+  </si>
+  <si>
+    <t>Amgkat Crane 2 Ton</t>
+  </si>
+  <si>
+    <t>batu ampar ke bengkong</t>
+  </si>
+  <si>
+    <t>02:00:00</t>
   </si>
   <si>
     <t>Lunas</t>
   </si>
   <si>
-    <t>0002</t>
-  </si>
-  <si>
-    <t>2024-08-01</t>
-  </si>
-  <si>
-    <t>BP 9520 ZG</t>
-  </si>
-  <si>
-    <t>gini</t>
-  </si>
-  <si>
-    <t>Angkat Crane 2 Ton</t>
-  </si>
-  <si>
-    <t>Batu Aji ke Barelang</t>
-  </si>
-  <si>
-    <t>02:00:00</t>
-  </si>
-  <si>
-    <t>Term</t>
-  </si>
-  <si>
-    <t>0003</t>
-  </si>
-  <si>
-    <t>2024-08-08</t>
-  </si>
-  <si>
-    <t>Badur</t>
-  </si>
-  <si>
-    <t>abu</t>
-  </si>
-  <si>
-    <t>Pavling Blok</t>
-  </si>
-  <si>
-    <t>batu ampar ke bengkong</t>
-  </si>
-  <si>
-    <t>0004</t>
-  </si>
-  <si>
-    <t>2024-08-05</t>
-  </si>
-  <si>
-    <t>Gany</t>
-  </si>
-  <si>
-    <t>Angkat Genset 25 KVA</t>
-  </si>
-  <si>
-    <t>tanjung uncang ke tiban</t>
-  </si>
-  <si>
-    <t>abi</t>
-  </si>
-  <si>
-    <t>Amgkat Crane 2 Ton</t>
-  </si>
-  <si>
-    <t>2024-08-04</t>
-  </si>
-  <si>
-    <t>0010</t>
-  </si>
-  <si>
-    <t>BP 8914 ZE</t>
-  </si>
-  <si>
-    <t>Ahmad</t>
-  </si>
-  <si>
-    <t>Budi</t>
-  </si>
-  <si>
     <t>Total Harga:</t>
   </si>
   <si>
-    <t>Rp 4.650.000</t>
+    <t>Rp 500.000</t>
   </si>
 </sst>
 </file>
@@ -554,7 +476,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A2" sqref="A2:K2"/>
@@ -568,11 +490,11 @@
     <col min="4" max="4" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="11.711" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="24.708" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="22.28" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="26.993" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="15.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="15.282" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="12.854" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -647,234 +569,24 @@
         <v>20</v>
       </c>
       <c r="K3" s="2">
-        <v>700000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="2">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="2">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="2">
-        <v>650000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="2">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="2">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="2">
-        <v>700000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/public/Laporan_Pemasukan_Truck_Crane.xlsx
+++ b/public/Laporan_Pemasukan_Truck_Crane.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>Laporan Pemasukan Truck Crane</t>
   </si>
@@ -56,16 +56,70 @@
     <t>0001</t>
   </si>
   <si>
-    <t>2024-08-04</t>
+    <t>2024-08-19</t>
+  </si>
+  <si>
+    <t>BP 9088 EY</t>
+  </si>
+  <si>
+    <t>Adi</t>
+  </si>
+  <si>
+    <t>Budu</t>
+  </si>
+  <si>
+    <t>Angkat Genset</t>
+  </si>
+  <si>
+    <t>PH Ke Batam Center</t>
+  </si>
+  <si>
+    <t>01:00:00</t>
+  </si>
+  <si>
+    <t>Lunas</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>2024-08-05</t>
+  </si>
+  <si>
+    <t>Gany</t>
+  </si>
+  <si>
+    <t>Angkat Genset 25 KVA</t>
+  </si>
+  <si>
+    <t>tanjung uncang ke tiban</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>2024-08-20</t>
+  </si>
+  <si>
+    <t>Ahmad</t>
+  </si>
+  <si>
+    <t>Andi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angkat Beton </t>
+  </si>
+  <si>
+    <t>PH ke Nagoya Hill</t>
+  </si>
+  <si>
+    <t>03:00:00</t>
   </si>
   <si>
     <t>BP 9520 ZG</t>
   </si>
   <si>
-    <t>Adi</t>
-  </si>
-  <si>
-    <t>abu</t>
+    <t>abi</t>
   </si>
   <si>
     <t>Amgkat Crane 2 Ton</t>
@@ -77,13 +131,10 @@
     <t>02:00:00</t>
   </si>
   <si>
-    <t>Lunas</t>
-  </si>
-  <si>
     <t>Total Harga:</t>
   </si>
   <si>
-    <t>Rp 500.000</t>
+    <t>Rp 2.850.000</t>
   </si>
 </sst>
 </file>
@@ -476,7 +527,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A2" sqref="A2:K2"/>
@@ -490,11 +541,11 @@
     <col min="4" max="4" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="11.711" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="22.28" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="26.993" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="24.708" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="28.136" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="15.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="15.282" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -569,24 +620,129 @@
         <v>20</v>
       </c>
       <c r="K3" s="2">
-        <v>500000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="J4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="2">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
